--- a/BalanceSheet/KMB_bal.xlsx
+++ b/BalanceSheet/KMB_bal.xlsx
@@ -2910,19 +2910,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>698000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>75000000.0</v>
+        <v>723000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>500000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>21000000.0</v>
+        <v>527000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>512000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>511000000.0</v>
@@ -5164,7 +5164,7 @@
         <v>7469000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>7709000000.0</v>
+        <v>7305000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>7337000000.0</v>
@@ -5291,7 +5291,7 @@
         <v>8448000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>8151000000.0</v>
+        <v>7747000000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>7753000000.0</v>
